--- a/Plantilla_Sprint.xlsx
+++ b/Plantilla_Sprint.xlsx
@@ -5120,10 +5120,10 @@
   <dimension ref="A1:AP510"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="9" topLeftCell="H10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="9" topLeftCell="H14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="K29" sqref="K29"/>
+      <selection pane="bottomRight" activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6352,7 +6352,7 @@
         <v>34</v>
       </c>
       <c r="F20" s="53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G20" s="53" t="s">
         <v>57</v>
@@ -24712,7 +24712,7 @@
   </sheetPr>
   <dimension ref="A1:Y1051"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" showZeros="0" topLeftCell="A31" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" showZeros="0" topLeftCell="A25" workbookViewId="0">
       <selection activeCell="Z43" sqref="Z43"/>
     </sheetView>
   </sheetViews>
